--- a/LangExport.xlsx
+++ b/LangExport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Documents\GitHub\WebsiteMultiLangSupport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F45C62-ABDC-4F8E-BE9B-AFD0FB91FADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0952309B-8DFA-471B-9CDA-1599C3865B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="21690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7570" yWindow="5300" windowWidth="28820" windowHeight="15850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
